--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etudiant\Documents\ScrumGIT\Scrumitos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Release Planning" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Fiche User Story" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Release Planning" sheetId="2" r:id="rId2"/>
+    <sheet name="Fiche User Story" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Product Backlog'!$A:$G</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$A$3:$G$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog'!$A$3:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A:$G</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,190 +30,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
-  <si>
-    <t xml:space="preserve">Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT BACKLOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numéro de  Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priorité Métier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test de la Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexité
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+  <si>
+    <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
+  </si>
+  <si>
+    <t>PRODUCT BACKLOG</t>
+  </si>
+  <si>
+    <t>Numéro de  Story</t>
+  </si>
+  <si>
+    <t>Priorité Métier</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Nom de la Story</t>
+  </si>
+  <si>
+    <t>Description Story</t>
+  </si>
+  <si>
+    <t>Test de la Story</t>
+  </si>
+  <si>
+    <t>Complexité
 en Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Version 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installer le code V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installer le code PHP de la version 1 sur le serveur WebDev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer la base V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer la base MySql de la version 1  via Phpmyadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'admin, je veux créer les news du camping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulter News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ent ant qu'internaute (ou admin ou client), je veux consulter les news du camping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation Emplacements</t>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>Installer le code V1</t>
+  </si>
+  <si>
+    <t>Installer le code PHP de la version 1 sur le serveur WebDev</t>
+  </si>
+  <si>
+    <t>Créer la base V1</t>
+  </si>
+  <si>
+    <t>Créer la base MySql de la version 1  via Phpmyadmin</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Créer News</t>
+  </si>
+  <si>
+    <t>En tant qu'admin, je veux créer les news du camping</t>
+  </si>
+  <si>
+    <t>Consulter News</t>
+  </si>
+  <si>
+    <t>Ent ant qu'internaute (ou admin ou client), je veux consulter les news du camping</t>
+  </si>
+  <si>
+    <t>Consultation Emplacements</t>
   </si>
   <si>
     <t xml:space="preserve">Consulter  Image emplacements </t>
   </si>
   <si>
-    <t xml:space="preserve">En tant qu'internaute (ou admin ou client) je veux consulter la liste des emplacements avec leurs images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation  Emplacements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulter  emplacements par type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'internaute (ou client)  je veux consulter  les emplacements par type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche avancée Emplacement</t>
+    <t>En tant qu'internaute (ou admin ou client) je veux consulter la liste des emplacements avec leurs images</t>
+  </si>
+  <si>
+    <t>Consultation  Emplacements</t>
+  </si>
+  <si>
+    <t>Consulter  emplacements par type</t>
+  </si>
+  <si>
+    <t>En tant qu'internaute (ou client)  je veux consulter  les emplacements par type</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Recherche avancée Emplacement</t>
   </si>
   <si>
     <t xml:space="preserve">En tant qu'internaute ( ou admin ou client) je veux faire une recherche avancée d'emplacements (par type et/ou par période de dispo et/ou par taille-nb occupants max)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Consulter detail emplacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'internaute (ou admin  ou client) je veux consulter les détails d'un emplacement (en cliquant sur un lien et/ou sur l'image de l'emplacement) --&gt; voir notamment le prix de la location par semaine ou période de l'année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenir choix formulaire ConsultType.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans ConsultType.php, on veut conserver le choix du formulaire lors de l'affichage du résultat (comme dans ConsultDate.php)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire une demande de location par internaute/client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'internaute (ou client), je veux faire une demande de location d'un emplacement à partir du détail d'un emplacement.  
+    <t>Consulter detail emplacement</t>
+  </si>
+  <si>
+    <t>En tant qu'internaute (ou admin  ou client) je veux consulter les détails d'un emplacement (en cliquant sur un lien et/ou sur l'image de l'emplacement) --&gt; voir notamment le prix de la location par semaine ou période de l'année</t>
+  </si>
+  <si>
+    <t>Maintenir choix formulaire ConsultType.php</t>
+  </si>
+  <si>
+    <t>Dans ConsultType.php, on veut conserver le choix du formulaire lors de l'affichage du résultat (comme dans ConsultDate.php)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Faire une demande de location par internaute/client</t>
+  </si>
+  <si>
+    <t>En tant qu'internaute (ou client), je veux faire une demande de location d'un emplacement à partir du détail d'un emplacement.  
 Choix d'une période disponible, saisie des infos de l'internaute (nom, adresse, email, tph…) et choix des options disponibles (wifi, laverie, barbecue, lave-vaisselle, accès piscine…)). 
 Si l'internaute est en fait un ancien client, on doit lui proposer de se connecter (ou envoi nouveau login/mot de passe si perdus) durant cette étape au lieu de saisir ses infos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modif infos client</t>
+    <t>Modif infos client</t>
   </si>
   <si>
     <t xml:space="preserve">En tant que client connu, je veux modifier mes informations (adresse, email, tph…) </t>
   </si>
   <si>
-    <t xml:space="preserve">Generale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier la charte graphique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appliquer la nouvelle charte graphique Bootstrap définie dans un zip du répertoire Vue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valider Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'admin, je veux valider (ou pas) une demande de location d'un intternaute (ou client)</t>
+    <t>Generale</t>
+  </si>
+  <si>
+    <t>Modifier la charte graphique</t>
+  </si>
+  <si>
+    <t>Appliquer la nouvelle charte graphique Bootstrap définie dans un zip du répertoire Vue</t>
+  </si>
+  <si>
+    <t>Valider Location</t>
+  </si>
+  <si>
+    <t>En tant qu'admin, je veux valider (ou pas) une demande de location d'un intternaute (ou client)</t>
   </si>
   <si>
     <t xml:space="preserve">Voir mes locations </t>
   </si>
   <si>
-    <t xml:space="preserve">En tant que client  je veux voir mes locations passées, actuelles et futures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire une demande d'annulation de location</t>
+    <t>En tant que client  je veux voir mes locations passées, actuelles et futures</t>
+  </si>
+  <si>
+    <t>Faire une demande d'annulation de location</t>
   </si>
   <si>
     <t xml:space="preserve">En tant que client connu, je veux demander une annulation de location future </t>
   </si>
   <si>
-    <t xml:space="preserve">Avis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer un avis client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant que client, je veux créer un avis sur une de mes locations passées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulter les avis des clients précédents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant que client / internaute / admin, je veux consulter les avis des anciens clients du camping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le CRUD des Clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir faire le CRUD (Create, Read, Update, Delete) des clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD Emplacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le CRUD des Emplacements</t>
+    <t>Avis</t>
+  </si>
+  <si>
+    <t>Créer un avis client</t>
+  </si>
+  <si>
+    <t>En tant que client, je veux créer un avis sur une de mes locations passées</t>
+  </si>
+  <si>
+    <t>Consulter les avis des clients précédents</t>
+  </si>
+  <si>
+    <t>En tant que client / internaute / admin, je veux consulter les avis des anciens clients du camping</t>
+  </si>
+  <si>
+    <t>CRUD Client</t>
+  </si>
+  <si>
+    <t>Faire le CRUD des Clients</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir faire le CRUD (Create, Read, Update, Delete) des clients</t>
+  </si>
+  <si>
+    <t>CRUD Emplacement</t>
+  </si>
+  <si>
+    <t>Faire le CRUD des Emplacements</t>
   </si>
   <si>
     <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir faire le CRUD (Create, Read, Update, Delete) des emplacements </t>
   </si>
   <si>
-    <t xml:space="preserve">CRUD Type Emplacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le CRUD des Type Emplacements</t>
+    <t>CRUD Type Emplacement</t>
+  </si>
+  <si>
+    <t>Faire le CRUD des Type Emplacements</t>
   </si>
   <si>
     <r>
@@ -219,17 +223,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir faire le CRUD (Create, Read, Update, Delete) des types d'emplacements. L'ajout d'un emplacement inclut l'</t>
+      <t>En tant qu'administrateur, je veux pouvoir faire le CRUD (Create, Read, Update, Delete) des types d'emplacements. L'ajout d'un emplacement inclut l'</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">upload</t>
+      <t>upload</t>
     </r>
     <r>
       <rPr>
@@ -242,179 +246,159 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CRUD Demandes Locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le CRUD des demandes de location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir faire le CRUD (dont la validation d'une demande) des demandes de locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le CRUD des news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir faire le CRUD des news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD Disponibilités Emplacements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le CRUD des disponibilités d'emplacements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir faire le CRUD des disponibilités d'emplacements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archiver les données passées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'admin, je veux archiver toutes les données de la base de données  liées à une saison terminée (ne plus garder en base les locations de l’année 2018, sauf les clients).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annuler une location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant qu'admin, je veux accorder ou refuser une demande d’annulation de location future par un client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exemple de Release Burndown Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2 / Release 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Points Complexité Restants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectif du Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation du site et mise en place de l'environement de travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place des news, consultations des emplacements et modification de l'interface général</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial (= Product Backlog)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stories prévues (nom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-4-5-6-8-9-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin Sprint 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vélocité prévue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N. Story-tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Tests ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stories finies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin Sprint 2 / Release 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vélocité réelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumul Vélocité réelle</t>
+    <t>CRUD Demandes Locations</t>
+  </si>
+  <si>
+    <t>Faire le CRUD des demandes de location</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir faire le CRUD (dont la validation d'une demande) des demandes de locations</t>
+  </si>
+  <si>
+    <t>CRUD News</t>
+  </si>
+  <si>
+    <t>Faire le CRUD des news</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir faire le CRUD des news</t>
+  </si>
+  <si>
+    <t>CRUD Disponibilités Emplacements</t>
+  </si>
+  <si>
+    <t>Faire le CRUD des disponibilités d'emplacements</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir faire le CRUD des disponibilités d'emplacements</t>
+  </si>
+  <si>
+    <t>Archivage</t>
+  </si>
+  <si>
+    <t>Archiver les données passées</t>
+  </si>
+  <si>
+    <t>En tant qu'admin, je veux archiver toutes les données de la base de données  liées à une saison terminée (ne plus garder en base les locations de l’année 2018, sauf les clients).</t>
+  </si>
+  <si>
+    <t>Annuler une location</t>
+  </si>
+  <si>
+    <t>En tant qu'admin, je veux accorder ou refuser une demande d’annulation de location future par un client</t>
+  </si>
+  <si>
+    <t>Exemple de Release Burndown Chart</t>
+  </si>
+  <si>
+    <t>Sprint 0</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2 / Release 1</t>
+  </si>
+  <si>
+    <t>Total Points Complexité Restants</t>
+  </si>
+  <si>
+    <t>Init projet</t>
+  </si>
+  <si>
+    <t>Objectif du Sprint</t>
+  </si>
+  <si>
+    <t>Installation du site et mise en place de l'environement de travail</t>
+  </si>
+  <si>
+    <t>Mise en place des news, consultations des emplacements et modification de l'interface général</t>
+  </si>
+  <si>
+    <t>Initial (= Product Backlog)</t>
+  </si>
+  <si>
+    <t>Stories prévues (nom)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3-4-5-6-8-9-12</t>
+  </si>
+  <si>
+    <t>Fin Sprint 0</t>
+  </si>
+  <si>
+    <t>Vélocité prévue</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Fin Sprint 1</t>
+  </si>
+  <si>
+    <t>N. Story-tests</t>
+  </si>
+  <si>
+    <t>Fin Sprint 3</t>
+  </si>
+  <si>
+    <t>N Tests ok</t>
+  </si>
+  <si>
+    <t>Fin Sprint 4</t>
+  </si>
+  <si>
+    <t>Stories finies</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Fin Sprint 2 / Release 1</t>
+  </si>
+  <si>
+    <t>Vélocité réelle</t>
+  </si>
+  <si>
+    <t>Cumul Vélocité réelle</t>
   </si>
   <si>
     <t xml:space="preserve">Numéro User Story du Product Backlog : </t>
   </si>
   <si>
-    <t xml:space="preserve">Priorité métier</t>
+    <t>Priorité métier</t>
   </si>
   <si>
     <t xml:space="preserve">Description de la Story  </t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexité</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Complexité</t>
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -423,7 +407,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -431,21 +415,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="28"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000080"/>
       <name val="Arial"/>
@@ -453,14 +437,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -468,7 +452,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -488,30 +472,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="36"/>
@@ -559,482 +531,462 @@
     </fill>
   </fills>
   <borders count="20">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thin"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thick"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thick"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thick"/>
-      <top style="thin"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1093,15 +1045,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1110,7 +1080,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1118,7 +1088,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1129,6 +1099,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1144,10 +1115,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0459693091201501"/>
-          <c:y val="0.0511768255884128"/>
-          <c:w val="0.915164511157274"/>
-          <c:h val="0.744840072420036"/>
+          <c:x val="4.5969309120150098E-2"/>
+          <c:y val="5.11768255884128E-2"/>
+          <c:w val="0.91516451115727404"/>
+          <c:h val="0.74484007242003603"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1157,12 +1128,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1171,18 +1139,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1191,6 +1167,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1226,22 +1203,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-220D-4160-8E58-F9021C59D984}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1249,7 +1233,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="61437345"/>
         <c:axId val="82322424"/>
       </c:lineChart>
@@ -1267,7 +1251,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1277,13 +1261,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82322424"/>
@@ -1304,7 +1289,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1324,13 +1309,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="61437345"/>
@@ -1346,27 +1332,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1380,14 +1368,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9392400" y="3436560"/>
-        <a:ext cx="5371560" cy="2982240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1400,136 +1388,397 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM73"/>
+  <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="66.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="31.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="36.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="6" width="9.14"/>
+    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="9" customWidth="1"/>
+    <col min="10" max="1024" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:65" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:65" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="15" customFormat="true" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="2"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:65" s="15" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-    </row>
-    <row r="4" s="20" customFormat="true" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="H3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+    </row>
+    <row r="4" spans="1:65" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>350</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1542,16 +1791,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="19" t="n">
+      <c r="G4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:65" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <f t="shared" ref="A5:A28" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="22">
         <v>340</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -1564,16 +1813,16 @@
         <v>13</v>
       </c>
       <c r="F5" s="23"/>
-      <c r="G5" s="24" t="n">
+      <c r="G5" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:65" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="22">
         <v>300</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -1586,16 +1835,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="24" t="n">
+      <c r="G6" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:65" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="22">
         <v>250</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -1608,16 +1857,16 @@
         <v>18</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="24" t="n">
+      <c r="G7" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="22">
         <v>220</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -1630,16 +1879,16 @@
         <v>21</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="24" t="n">
+      <c r="G8" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
-        <f aca="false">A8+1</f>
+    <row r="9" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="17">
         <v>200</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1652,19 +1901,19 @@
         <v>24</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>2</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
-        <f aca="false">A9+1</f>
+    <row r="10" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="22">
         <v>180</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -1677,16 +1926,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
-        <f aca="false">A10+1</f>
+    <row r="11" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="22">
         <v>150</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -1699,16 +1948,16 @@
         <v>30</v>
       </c>
       <c r="F11" s="23"/>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
-        <f aca="false">A11+1</f>
+    <row r="12" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="22">
         <v>140</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -1721,16 +1970,16 @@
         <v>32</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="true" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
-        <f aca="false">A12+1</f>
+    <row r="13" spans="1:65" s="26" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="22">
         <v>120</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -1743,16 +1992,16 @@
         <v>35</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="24" t="n">
+      <c r="G13" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="14" s="26" customFormat="true" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
-        <f aca="false">A13+1</f>
+    <row r="14" spans="1:65" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="17">
         <v>110</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -1765,16 +2014,16 @@
         <v>37</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="19" t="n">
+      <c r="G14" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="15" s="26" customFormat="true" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
-        <f aca="false">A14+1</f>
+    <row r="15" spans="1:65" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="17">
         <v>90</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -1787,16 +2036,16 @@
         <v>40</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="26" customFormat="true" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
-        <f aca="false">A15+1</f>
+    <row r="16" spans="1:65" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="17">
         <v>85</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -1809,16 +2058,16 @@
         <v>42</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="17" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
-        <f aca="false">A16+1</f>
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="17">
         <v>80</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -1831,16 +2080,16 @@
         <v>44</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="24" t="n">
+      <c r="G17" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
-        <f aca="false">A17+1</f>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="17">
         <v>70</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -1853,16 +2102,16 @@
         <v>46</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="24" t="n">
+      <c r="G18" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
-        <f aca="false">A18+1</f>
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="17">
         <v>65</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -1875,16 +2124,16 @@
         <v>49</v>
       </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="24" t="n">
+      <c r="G19" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="20" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
-        <f aca="false">A19+1</f>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="17">
         <v>60</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -1897,16 +2146,16 @@
         <v>51</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="24" t="n">
+      <c r="G20" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="21" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
-        <f aca="false">A20+1</f>
+    <row r="21" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="22">
         <v>50</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -1919,16 +2168,16 @@
         <v>54</v>
       </c>
       <c r="F21" s="23"/>
-      <c r="G21" s="24" t="n">
+      <c r="G21" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="22" s="26" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
-        <f aca="false">A21+1</f>
+    <row r="22" spans="1:7" s="26" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="22">
         <v>40</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -1941,16 +2190,16 @@
         <v>57</v>
       </c>
       <c r="F22" s="23"/>
-      <c r="G22" s="24" t="n">
+      <c r="G22" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="23" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
-        <f aca="false">A22+1</f>
+    <row r="23" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="17">
         <v>30</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -1963,16 +2212,16 @@
         <v>60</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="24" t="n">
+      <c r="G23" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="24" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
-        <f aca="false">A23+1</f>
+    <row r="24" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="22">
         <v>28</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -1985,16 +2234,16 @@
         <v>63</v>
       </c>
       <c r="F24" s="23"/>
-      <c r="G24" s="24" t="n">
+      <c r="G24" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
-        <f aca="false">A24+1</f>
+    <row r="25" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="22">
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2007,16 +2256,16 @@
         <v>66</v>
       </c>
       <c r="F25" s="23"/>
-      <c r="G25" s="24" t="n">
+      <c r="G25" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="26" s="26" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="n">
-        <f aca="false">A25+1</f>
+    <row r="26" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="22">
         <v>22</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -2029,16 +2278,16 @@
         <v>69</v>
       </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="24" t="n">
+      <c r="G26" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="27" s="28" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
-        <f aca="false">A26+1</f>
+    <row r="27" spans="1:7" s="28" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="22">
         <v>20</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2051,16 +2300,16 @@
         <v>72</v>
       </c>
       <c r="F27" s="23"/>
-      <c r="G27" s="24" t="n">
+      <c r="G27" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="28" s="28" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
-        <f aca="false">A27+1</f>
+    <row r="28" spans="1:7" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="n">
+      <c r="B28" s="17">
         <v>18</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -2073,11 +2322,11 @@
         <v>74</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="19" t="n">
+      <c r="G28" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="29" s="28" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2086,7 +2335,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2095,16 +2344,16 @@
       <c r="F30" s="33"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2113,7 +2362,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -2122,16 +2371,16 @@
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
     </row>
-    <row r="34" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="34" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -2140,7 +2389,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -2149,16 +2398,16 @@
       <c r="F36" s="33"/>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2167,7 +2416,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -2176,16 +2425,16 @@
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
     </row>
-    <row r="40" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+    <row r="40" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="36"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -2194,7 +2443,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -2203,16 +2452,16 @@
       <c r="F42" s="33"/>
       <c r="G42" s="34"/>
     </row>
-    <row r="43" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -2221,7 +2470,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="34"/>
     </row>
-    <row r="45" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -2230,16 +2479,16 @@
       <c r="F45" s="33"/>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+    <row r="46" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -2248,7 +2497,7 @@
       <c r="F47" s="33"/>
       <c r="G47" s="34"/>
     </row>
-    <row r="48" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -2257,16 +2506,16 @@
       <c r="F48" s="33"/>
       <c r="G48" s="34"/>
     </row>
-    <row r="49" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+    <row r="49" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -2275,7 +2524,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="34"/>
     </row>
-    <row r="51" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -2284,16 +2533,16 @@
       <c r="F51" s="33"/>
       <c r="G51" s="34"/>
     </row>
-    <row r="52" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -2302,7 +2551,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="34"/>
     </row>
-    <row r="54" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -2311,16 +2560,16 @@
       <c r="F54" s="33"/>
       <c r="G54" s="34"/>
     </row>
-    <row r="55" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+    <row r="55" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -2329,7 +2578,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="34"/>
     </row>
-    <row r="57" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -2338,16 +2587,16 @@
       <c r="F57" s="33"/>
       <c r="G57" s="34"/>
     </row>
-    <row r="58" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+    <row r="58" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -2356,7 +2605,7 @@
       <c r="F59" s="33"/>
       <c r="G59" s="34"/>
     </row>
-    <row r="60" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -2365,16 +2614,16 @@
       <c r="F60" s="33"/>
       <c r="G60" s="34"/>
     </row>
-    <row r="61" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -2383,7 +2632,7 @@
       <c r="F62" s="33"/>
       <c r="G62" s="34"/>
     </row>
-    <row r="63" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -2392,16 +2641,16 @@
       <c r="F63" s="33"/>
       <c r="G63" s="34"/>
     </row>
-    <row r="64" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+    <row r="64" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -2410,7 +2659,7 @@
       <c r="F65" s="33"/>
       <c r="G65" s="34"/>
     </row>
-    <row r="66" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -2419,16 +2668,16 @@
       <c r="F66" s="33"/>
       <c r="G66" s="34"/>
     </row>
-    <row r="67" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+    <row r="67" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
@@ -2437,7 +2686,7 @@
       <c r="F68" s="33"/>
       <c r="G68" s="34"/>
     </row>
-    <row r="69" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -2446,37 +2695,37 @@
       <c r="F69" s="33"/>
       <c r="G69" s="34"/>
     </row>
-    <row r="70" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+    <row r="70" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
       <c r="F70" s="36"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="37"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
       <c r="F71" s="36"/>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="37"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
       <c r="F72" s="36"/>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="37"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
       <c r="F73" s="36"/>
@@ -2489,45 +2738,38 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="I3:L3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="39" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="40" width="30.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="41" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="41" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="41" width="44.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="41" width="11.42"/>
+    <col min="1" max="2" width="30.140625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="41"/>
+    <col min="6" max="6" width="34.28515625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="41" customWidth="1"/>
+    <col min="8" max="1024" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F1" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="44" t="s">
         <v>76</v>
@@ -2542,7 +2784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="46" t="s">
         <v>80</v>
@@ -2552,7 +2794,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>81</v>
       </c>
@@ -2566,11 +2808,11 @@
       <c r="F5" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="53" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G5" s="53">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>85</v>
       </c>
@@ -2584,15 +2826,17 @@
       <c r="F6" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="53" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="53">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="C7" s="51" t="s">
         <v>90</v>
       </c>
@@ -2600,11 +2844,9 @@
       <c r="F7" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="53" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>92</v>
       </c>
@@ -2614,11 +2856,11 @@
       <c r="F8" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="53" t="n">
+      <c r="G8" s="53">
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>94</v>
       </c>
@@ -2628,11 +2870,11 @@
       <c r="F9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="53" t="n">
+      <c r="G9" s="53">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>96</v>
       </c>
@@ -2644,216 +2886,205 @@
       <c r="F10" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="55"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="59"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
       <c r="E1" s="62"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="68"/>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
       <c r="B4" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="66"/>
     </row>
-    <row r="5" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63"/>
       <c r="B5" s="69"/>
       <c r="C5" s="64"/>
       <c r="D5" s="70"/>
       <c r="E5" s="66"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="66"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="63"/>
       <c r="B7" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="66"/>
     </row>
-    <row r="8" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="63"/>
       <c r="B8" s="71"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="66"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="74"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="63"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="66"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
       <c r="E11" s="62"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="63"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
       <c r="D12" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="66"/>
     </row>
-    <row r="13" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
       <c r="B13" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="68"/>
       <c r="E13" s="66"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="66"/>
     </row>
-    <row r="15" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="69"/>
       <c r="C15" s="64"/>
       <c r="D15" s="70"/>
       <c r="E15" s="66"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="63"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="66"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
       <c r="B17" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="66"/>
     </row>
-    <row r="18" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63"/>
       <c r="B18" s="71"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="66"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -2861,12 +3092,7 @@
       <c r="E19" s="74"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>En tant qu'internaute (ou client)  je veux consulter  les emplacements par type</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Recherche</t>
@@ -324,9 +321,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>3-4-5-6-8-9-12</t>
-  </si>
-  <si>
     <t>Fin Sprint 0</t>
   </si>
   <si>
@@ -384,7 +378,10 @@
     <t xml:space="preserve">Test </t>
   </si>
   <si>
-    <t>10</t>
+    <t>2 + X</t>
+  </si>
+  <si>
+    <t>3-4-5-6-8-9</t>
   </si>
 </sst>
 </file>
@@ -783,15 +780,6 @@
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +969,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,1080 +1653,1077 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="9" customWidth="1"/>
-    <col min="10" max="1024" width="9.140625" style="9"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="6" customWidth="1"/>
+    <col min="10" max="1024" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:65" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:65" s="15" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="73"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:65" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-    </row>
-    <row r="4" spans="1:65" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="H3" s="11"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+    </row>
+    <row r="4" spans="1:65" s="17" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>350</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19">
+      <c r="F4" s="15"/>
+      <c r="G4" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" spans="1:65" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <f t="shared" ref="A5:A28" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>340</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+    <row r="6" spans="1:65" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>300</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+    <row r="7" spans="1:65" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>250</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24">
+      <c r="F7" s="20"/>
+      <c r="G7" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+    <row r="8" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>220</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24">
+      <c r="F8" s="22"/>
+      <c r="G8" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+    <row r="9" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>200</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="19">
+      <c r="F9" s="22"/>
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+    </row>
+    <row r="10" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>180</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+    <row r="11" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>150</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24">
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+    <row r="12" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>140</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24">
+      <c r="F12" s="20"/>
+      <c r="G12" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="26" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+    <row r="13" spans="1:65" s="23" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <v>120</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="24">
+      <c r="F13" s="13"/>
+      <c r="G13" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="14" spans="1:65" s="23" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>110</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="19">
+      <c r="F14" s="22"/>
+      <c r="G14" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+    <row r="15" spans="1:65" s="23" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="14">
         <v>90</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="19">
+      <c r="F15" s="22"/>
+      <c r="G15" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:65" s="23" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <v>85</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="19">
+      <c r="F16" s="22"/>
+      <c r="G16" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <v>80</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24">
+      <c r="F17" s="22"/>
+      <c r="G17" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>70</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24">
+      <c r="F18" s="22"/>
+      <c r="G18" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <v>65</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24">
+      <c r="F19" s="22"/>
+      <c r="G19" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>60</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24">
+      <c r="F20" s="22"/>
+      <c r="G20" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>50</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24">
+      <c r="F21" s="20"/>
+      <c r="G21" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>40</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24">
+      <c r="F22" s="20"/>
+      <c r="G22" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="14">
         <v>30</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24">
+      <c r="F23" s="22"/>
+      <c r="G23" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>28</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24">
+      <c r="F24" s="20"/>
+      <c r="G24" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="19">
         <v>25</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24">
+      <c r="F25" s="20"/>
+      <c r="G25" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>22</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24">
+      <c r="F26" s="20"/>
+      <c r="G26" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="28" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+    <row r="27" spans="1:7" s="25" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="19">
         <v>20</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24">
+      <c r="F27" s="20"/>
+      <c r="G27" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+    <row r="28" spans="1:7" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="14">
         <v>18</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="19">
+      <c r="F28" s="22"/>
+      <c r="G28" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-    </row>
-    <row r="39" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-    </row>
-    <row r="40" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
-    </row>
-    <row r="45" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
-    </row>
-    <row r="46" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-    </row>
-    <row r="49" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="34"/>
-    </row>
-    <row r="51" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-    </row>
-    <row r="52" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
-    </row>
-    <row r="54" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="34"/>
-    </row>
-    <row r="55" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34"/>
-    </row>
-    <row r="57" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34"/>
-    </row>
-    <row r="58" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="34"/>
-    </row>
-    <row r="60" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="34"/>
-    </row>
-    <row r="61" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="34"/>
-    </row>
-    <row r="63" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="34"/>
-    </row>
-    <row r="64" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="34"/>
-    </row>
-    <row r="66" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="34"/>
-    </row>
-    <row r="67" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="34"/>
-    </row>
-    <row r="69" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="34"/>
-    </row>
-    <row r="70" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="10"/>
-    </row>
-    <row r="71" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="38"/>
-    </row>
-    <row r="72" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="38"/>
-    </row>
-    <row r="73" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="38"/>
+    <row r="29" spans="1:7" s="25" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+    </row>
+    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+    </row>
+    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+    </row>
+    <row r="54" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
+    </row>
+    <row r="60" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
+    </row>
+    <row r="61" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="31"/>
+    </row>
+    <row r="63" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="31"/>
+    </row>
+    <row r="64" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+    </row>
+    <row r="66" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="31"/>
+    </row>
+    <row r="67" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="31"/>
+    </row>
+    <row r="70" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="34"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="35"/>
+    </row>
+    <row r="72" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="34"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="35"/>
+    </row>
+    <row r="73" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="34"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G53"/>
@@ -2751,164 +2745,166 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.140625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="41"/>
-    <col min="6" max="6" width="34.28515625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="41" customWidth="1"/>
-    <col min="8" max="1024" width="11.42578125" style="41"/>
+    <col min="1" max="2" width="30.140625" style="36" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="38"/>
+    <col min="6" max="6" width="34.28515625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="38" customWidth="1"/>
+    <col min="8" max="1024" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="F3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="42" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="49"/>
+      <c r="F5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="F5" s="53" t="s">
+      <c r="G5" s="50">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="53">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="C6" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="F6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="G6" s="50">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="F6" s="53" t="s">
+      <c r="B7" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="53">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="D7" s="49"/>
+      <c r="F7" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="F7" s="53" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="G8" s="50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="F8" s="53" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="F9" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="53">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="G9" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="F9" s="53" t="s">
+      <c r="B10" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="F10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="F10" s="53" t="s">
+      <c r="B11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
+      <c r="B12" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2935,161 +2931,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="63"/>
+    </row>
+    <row r="3" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60"/>
+      <c r="B3" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="67" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64" t="s">
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="60"/>
+      <c r="B7" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="66"/>
-    </row>
-    <row r="5" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="66"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="66"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="66"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60"/>
+      <c r="B13" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="66"/>
-    </row>
-    <row r="13" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="67" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="66"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64" t="s">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="63"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="66"/>
-    </row>
-    <row r="15" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="66"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="66"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="66"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Vélocité prévue</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Fin Sprint 1</t>
   </si>
   <si>
@@ -378,10 +375,19 @@
     <t xml:space="preserve">Test </t>
   </si>
   <si>
-    <t>2 + X</t>
-  </si>
-  <si>
     <t>3-4-5-6-8-9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3-4-Admin</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1659,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2744,8 +2750,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2820,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="49"/>
       <c r="F6" s="50" t="s">
@@ -2832,23 +2838,23 @@
         <v>85</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D7" s="49"/>
       <c r="F7" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="48"/>
       <c r="D8" s="49"/>
       <c r="F8" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="50">
         <v>35</v>
@@ -2856,13 +2862,13 @@
     </row>
     <row r="9" spans="1:7" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="51"/>
       <c r="D9" s="52"/>
       <c r="F9" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="50">
         <v>20</v>
@@ -2870,39 +2876,43 @@
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" s="52"/>
       <c r="F10" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="51" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" s="52"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" s="56"/>
     </row>
@@ -2932,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -2944,14 +2954,14 @@
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
       <c r="D2" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60"/>
       <c r="B3" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="65"/>
@@ -2960,11 +2970,11 @@
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="60"/>
       <c r="B4" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="63"/>
     </row>
@@ -2985,7 +2995,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="B7" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -3014,7 +3024,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3026,14 +3036,14 @@
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="65"/>
@@ -3042,11 +3052,11 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="60"/>
       <c r="B14" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="63"/>
     </row>
@@ -3067,7 +3077,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="60"/>
       <c r="B17" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,10 @@
     <t>3-4-Admin</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -1210,6 +1210,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2750,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2847,9 @@
       <c r="F7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="50">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>3-4-5-6-8-9</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>3-4-Admin</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1662,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2753,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2841,7 +2841,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" s="49"/>
       <c r="F7" s="50" t="s">
@@ -2887,7 +2887,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="52"/>
       <c r="F10" s="50" t="s">
@@ -2903,7 +2903,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="52"/>
       <c r="F11" s="53"/>
@@ -2917,7 +2917,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="56"/>
     </row>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -387,7 +387,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -2754,7 +2754,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -378,16 +378,16 @@
     <t>3-4-5-6-8-9</t>
   </si>
   <si>
-    <t>3-4-Admin</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2754,7 +2754,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2820,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>104</v>
@@ -2841,14 +2841,14 @@
         <v>85</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" s="49"/>
       <c r="F7" s="50" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="50">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="52"/>
       <c r="F10" s="50" t="s">
@@ -2903,7 +2903,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="52"/>
       <c r="F11" s="53"/>
@@ -2917,7 +2917,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="56"/>
     </row>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>5-6-7-8-9</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1665,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2753,8 +2756,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2828,9 @@
       <c r="C6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="F6" s="50" t="s">
         <v>86</v>
       </c>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -390,7 +390,13 @@
     <t>8</t>
   </si>
   <si>
-    <t>5-6-7-8-9</t>
+    <t>5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>5-6-7-8-9-</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1671,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1869,6 +1875,10 @@
       <c r="G7" s="21">
         <v>2</v>
       </c>
+      <c r="I7" s="17">
+        <f>SUM(G8:G26)-G15</f>
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
@@ -2180,7 +2190,7 @@
     </row>
     <row r="22" spans="1:7" s="23" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>19</v>
       </c>
       <c r="B22" s="19">
@@ -2202,7 +2212,7 @@
     </row>
     <row r="23" spans="1:7" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>20</v>
       </c>
       <c r="B23" s="14">
@@ -2756,8 +2766,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2818,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>84</v>
       </c>
@@ -2848,7 +2858,9 @@
       <c r="C7" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="F7" s="50" t="s">
         <v>88</v>
       </c>
@@ -2894,7 +2906,9 @@
       <c r="C10" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="52" t="s">
+        <v>111</v>
+      </c>
       <c r="F10" s="50" t="s">
         <v>95</v>
       </c>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>5-6-7-8-9-</t>
+  </si>
+  <si>
+    <t>Mise en place des recherches avancées d'emplacements</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2770,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2823,9 @@
       <c r="C5" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="49" t="s">
+        <v>112</v>
+      </c>
       <c r="F5" s="50" t="s">
         <v>83</v>
       </c>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -396,10 +396,16 @@
     <t>70</t>
   </si>
   <si>
-    <t>5-6-7-8-9-</t>
-  </si>
-  <si>
     <t>Mise en place des recherches avancées d'emplacements</t>
+  </si>
+  <si>
+    <t>5-6-7-8-9-10-11-13-14-15-16-17-18-19-20-21-22-23-25</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
 </sst>
 </file>
@@ -1225,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,8 +1683,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1879,8 +1888,8 @@
         <v>2</v>
       </c>
       <c r="I7" s="17">
-        <f>SUM(G8:G26)-G15</f>
-        <v>82</v>
+        <f>SUM(G8:G28)-(G27)-(G15)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:65" s="23" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,7 +2779,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2824,7 +2833,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>83</v>
@@ -2901,7 +2910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>93</v>
       </c>
@@ -2912,12 +2921,14 @@
         <v>106</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="50">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
@@ -2929,7 +2940,9 @@
       <c r="C11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>113</v>
+      </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
     </row>
@@ -2943,7 +2956,9 @@
       <c r="C12" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="56" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Product_Backlog_Camping.xlsx
+++ b/Product_Backlog_Camping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etudiant\Documents\ScrumGIT\Scrumitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etudiant\Documents\Scrumitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>Objectif de Produit : Un Site web de réservation d'emplacement de Camping</t>
   </si>
@@ -390,22 +390,25 @@
     <t>8</t>
   </si>
   <si>
-    <t>5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
     <t>Mise en place des recherches avancées d'emplacements</t>
   </si>
   <si>
-    <t>5-6-7-8-9-10-11-13-14-15-16-17-18-19-20-21-22-23-25</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>93</t>
+    <t>5-6-7-8-9-10-11-13-14-15-16-17-18-19-20-21-22-23</t>
+  </si>
+  <si>
+    <t>5-6-9-11-14-16-17-</t>
+  </si>
+  <si>
+    <t>8 10 13 15</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1233,7 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,8 +1683,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1865,6 +1865,10 @@
       <c r="G6" s="21">
         <v>5</v>
       </c>
+      <c r="I6" s="17">
+        <f>SUM(G4:G28)</f>
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:65" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
@@ -2044,6 +2048,9 @@
       <c r="F14" s="22"/>
       <c r="G14" s="16">
         <v>5</v>
+      </c>
+      <c r="H14" s="23">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="23" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,10 +2783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2840,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>83</v>
@@ -2853,7 +2860,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>86</v>
@@ -2873,13 +2880,13 @@
         <v>105</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="50">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2910,7 +2917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>93</v>
       </c>
@@ -2926,9 +2933,7 @@
       <c r="F10" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="50">
-        <v>16</v>
-      </c>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
@@ -2941,7 +2946,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -2957,7 +2962,12 @@
         <v>108</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="37" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
